--- a/public/formato_carga_datos.xlsx
+++ b/public/formato_carga_datos.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Variedad</t>
   </si>
@@ -35,6 +35,9 @@
   </si>
   <si>
     <t>Ventas totales</t>
+  </si>
+  <si>
+    <t>Ciclo año</t>
   </si>
 </sst>
 </file>
@@ -437,10 +440,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:H1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -452,7 +455,7 @@
     <col min="7" max="7" width="14.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
@@ -473,6 +476,9 @@
       </c>
       <c r="G1" s="6" t="s">
         <v>6</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/public/formato_carga_datos.xlsx
+++ b/public/formato_carga_datos.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="150" windowWidth="20115" windowHeight="9540"/>
+    <workbookView xWindow="240" yWindow="150" windowWidth="20115" windowHeight="9540" tabRatio="204"/>
   </bookViews>
   <sheets>
     <sheet name="Datos Benchmark" sheetId="1" r:id="rId1"/>
@@ -22,9 +22,6 @@
     <t>Semana</t>
   </si>
   <si>
-    <t>Área</t>
-  </si>
-  <si>
     <t>Tallos cosechados</t>
   </si>
   <si>
@@ -38,6 +35,9 @@
   </si>
   <si>
     <t>Ciclo año</t>
+  </si>
+  <si>
+    <t>Área m2</t>
   </si>
 </sst>
 </file>
@@ -443,7 +443,7 @@
   <dimension ref="A1:H1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -452,7 +452,9 @@
     <col min="4" max="4" width="18.42578125" customWidth="1"/>
     <col min="5" max="5" width="16.5703125" customWidth="1"/>
     <col min="6" max="6" width="11.140625" customWidth="1"/>
-    <col min="7" max="7" width="14.5703125" customWidth="1"/>
+    <col min="7" max="7" width="26.7109375" customWidth="1"/>
+    <col min="8" max="8" width="21.7109375" customWidth="1"/>
+    <col min="9" max="9" width="14.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -463,26 +465,26 @@
         <v>0</v>
       </c>
       <c r="C1" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="E1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="G1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="H1" s="6" t="s">
         <v>6</v>
-      </c>
-      <c r="H1" s="6" t="s">
-        <v>7</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>